--- a/dataset/kontrakt_type.xlsx
+++ b/dataset/kontrakt_type.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Неизвестно</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Исполнитель</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Заказчик</t>
+          <t>0, 1</t>
         </is>
       </c>
     </row>
